--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/61/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/61/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4204204204204204</v>
+        <v>0.8321832183218322</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1539.53953953954</v>
+        <v>210.02100210021</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08388388388388389</v>
+        <v>0.03818381838183819</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02402402402402402</v>
+        <v>0.9037903790379038</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1563.563563563564</v>
+        <v>328.5928592859286</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.06206206206207</v>
+        <v>472.3672367236724</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.02102102102102</v>
+        <v>926.3663366336633</v>
       </c>
     </row>
   </sheetData>
